--- a/modele/plancher_bas.xlsx
+++ b/modele/plancher_bas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE6B624-AAA8-4950-8F5E-E84FCCBD3A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99017DBE-45AF-46BE-A05B-28672A31DB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="14" r:id="rId1"/>
@@ -1657,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8858E5C-D3D8-4A40-8516-D7D1CBC38C92}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2957,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F5316C-8434-4BCD-991D-32B081DE02C4}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
